--- a/Report/230325_FIT_KeHoachLamViec_Nhom4.xlsx
+++ b/Report/230325_FIT_KeHoachLamViec_Nhom4.xlsx
@@ -5,22 +5,33 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTCSN_Group5_HAUI\Biên bản, báo cáo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTCSN_Group5_HAUI\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3635A3-DDCB-4265-A2BE-43A1B2A5313E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBEB6A0-094A-4923-B787-FCBA4B16D69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang tính1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
   <si>
     <t>KẾ HOẠCH LÀM VIỆC NHÓM</t>
   </si>
@@ -221,6 +232,39 @@
 Ngày bắt đầu – Start time: 14/03/2023
 Ngày kế thúc – End date: 7/06/2023</t>
   </si>
+  <si>
+    <t>Hoàn thành báo cáo</t>
+  </si>
+  <si>
+    <t>27/05/2023</t>
+  </si>
+  <si>
+    <t>28/05/2023</t>
+  </si>
+  <si>
+    <t>21/05/2023</t>
+  </si>
+  <si>
+    <t>22/05/2023</t>
+  </si>
+  <si>
+    <t>13/05/2023</t>
+  </si>
+  <si>
+    <t>14/05/2023</t>
+  </si>
+  <si>
+    <t>25/05/2023</t>
+  </si>
+  <si>
+    <t>24/05/2023</t>
+  </si>
+  <si>
+    <t>20/04/2023</t>
+  </si>
+  <si>
+    <t>19/04/2023</t>
+  </si>
 </sst>
 </file>
 
@@ -283,7 +327,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -380,11 +424,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -453,6 +512,24 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -675,8 +752,8 @@
   </sheetPr>
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -689,7 +766,7 @@
     <col min="6" max="6" width="12.6640625" style="10"/>
     <col min="7" max="7" width="13.33203125" style="10" customWidth="1"/>
     <col min="8" max="8" width="21.33203125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="32.109375" style="10" customWidth="1"/>
+    <col min="9" max="9" width="37.6640625" style="10" customWidth="1"/>
     <col min="10" max="16384" width="12.6640625" style="10"/>
   </cols>
   <sheetData>
@@ -1301,10 +1378,18 @@
       <c r="C16" s="6">
         <v>45027</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="D16" s="29">
+        <v>45264</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="H16" s="7" t="s">
         <v>29</v>
       </c>
@@ -1403,7 +1488,7 @@
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
     </row>
-    <row r="19" spans="1:26" ht="36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>6</v>
       </c>
@@ -1443,7 +1528,7 @@
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
     </row>
-    <row r="20" spans="1:26" ht="72" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="5" t="s">
         <v>35</v>
@@ -1569,8 +1654,12 @@
       <c r="E23" s="6">
         <v>45051</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="F23" s="29">
+        <v>45021</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="H23" s="5" t="s">
         <v>40</v>
       </c>
@@ -1806,9 +1895,7 @@
         <v>45058</v>
       </c>
       <c r="F29" s="7"/>
-      <c r="G29" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="G29" s="7"/>
       <c r="H29" s="5" t="s">
         <v>12</v>
       </c>
@@ -1841,12 +1928,18 @@
       <c r="C30" s="6">
         <v>45059</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="E30" s="6">
         <v>45072</v>
       </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
+      <c r="F30" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="H30" s="5" t="s">
         <v>25</v>
       </c>
@@ -1877,7 +1970,9 @@
       <c r="C31" s="6">
         <v>45059</v>
       </c>
-      <c r="D31" s="7"/>
+      <c r="D31" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="E31" s="6">
         <v>45072</v>
       </c>
@@ -1948,15 +2043,21 @@
       <c r="B33" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="6">
         <v>45067</v>
       </c>
-      <c r="D33" s="8"/>
+      <c r="D33" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="E33" s="6">
         <v>45072</v>
       </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
+      <c r="F33" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="H33" s="8" t="s">
         <v>25</v>
       </c>
@@ -1984,15 +2085,21 @@
       <c r="B34" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="6">
         <v>45067</v>
       </c>
-      <c r="D34" s="8"/>
+      <c r="D34" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="E34" s="6">
         <v>45072</v>
       </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
+      <c r="F34" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="H34" s="8" t="s">
         <v>40</v>
       </c>
@@ -2016,21 +2123,21 @@
       <c r="Z34" s="9"/>
     </row>
     <row r="35" spans="1:26" ht="18" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
-      <c r="B35" s="8" t="s">
+      <c r="A35" s="17"/>
+      <c r="B35" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="26">
         <v>45067</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8" t="s">
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="I35" s="8"/>
+      <c r="I35" s="24"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
@@ -2050,15 +2157,25 @@
       <c r="Z35" s="9"/>
     </row>
     <row r="36" spans="1:26" ht="18" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
+      <c r="A36" s="25">
+        <v>11</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="27">
+        <v>44991</v>
+      </c>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
@@ -29015,11 +29132,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A35"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:I1"/>
@@ -29027,6 +29139,11 @@
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
